--- a/biology/Zoologie/Croc-Blanc/Croc-Blanc.xlsx
+++ b/biology/Zoologie/Croc-Blanc/Croc-Blanc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Croc-Blanc (titre original : White Fang) est un roman de l'écrivain américain Jack London publié aux États-Unis en 1906. 
 Le roman, adapté plusieurs fois au cinéma, relate l'histoire d'un chien-loup né à l’état sauvage d'une mère mi-chienne mi-louve et d'un père loup, se trouvant confronté au monde des hommes.
-En français, il est paru pour la première fois en 1923[1] dans une version sensiblement raccourcie (61 000 mots contre 73 000 dans l'original[réf. nécessaire]).
+En français, il est paru pour la première fois en 1923 dans une version sensiblement raccourcie (61 000 mots contre 73 000 dans l'original[réf. nécessaire]).
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'histoire commence par la description d'un traîneau portant un cercueil à travers le grand nord et le Wild et dirigé par deux hommes Henry et Bill. Ces deux hommes et leur attelage de chiens de traîneau partent livrer le cercueil de Lord Alfred dans une ville isolée du nom de Fort McGurry, dans les hauteurs du Territoire du Yukon. Les deux hommes, Bill et Henry, sont traqués par une meute de loups affamés pendant plusieurs jours. Cette meute de loup est dirigée par une louve qui connaît les hommes, elle reconnaît le fusil et elle se glisse dans le campement lors de la distribution de nourriture aux chiens. C'est elle aussi qui amadoue les chiens un par un à la suivre pour les dévorer avec le reste de la meute. Finalement, après que tous les chiens et Bill ont été dévorés, d'autres équipes trouvent Henry en train d'échapper aux loups ; la meute de loups se disperse lorsqu'elle entend l'arrivée d'un grand groupe de personnes.
 L'histoire suit ensuite la meute, qui a été privée de sa dernière proie. Lorsque la meute finit par abattre un élan, la famine prend fin ; ils finissent par se séparer car seule la faim maintenait la cohésion de la meute et à présent les rivalités d'accouplement commencent à apparaître. L'histoire continue de suivre la louve de tête et ses trois compagnons qui recherche tous ses faveurs ; parmi eux un jeune loup de trois ans, un plus vieux et enfin un vieux loup qui a perdu un œil dans une bataille. C'est ce dernier qui revendique la louve après avoir vaincu et tué ses deux rivaux. La louve donne naissance à une portée de cinq petits au bord du fleuve Mackenzie, qui meurent tous de faim, sauf un. One Eye est tué par un lynx alors qu'il tentait de voler sa tanière pour nourrir la louve et son petit ; son compagnon découvre plus tard ses restes près de la tanière du lynx. Le petit survivant et la louve sont livrés à eux-mêmes. On suit alors les traces de l'unique louveteau survivant qui fait ses premier pas dans la nature et qui découvre ses lois dont une en particulier « Manger ou être mangé ». Peu après, la louve tue tous les jeunes du lynx pour nourrir son petit, ce qui incite le lynx à la retrouver et un violent combat s'engage. La louve finit par tuer le lynx en partie grâce à deux interventions de son louveteau qui se suspend à la patte du lynx et le ralentit. La louve est cependant blessée et la carcasse du lynx est dévorée pendant sept jours, le temps que la louve se remette de ses blessures.
@@ -553,7 +567,9 @@
           <t>Analyse</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le récit se fonde sur l'expérience de Jack London dans le Grand Nord canadien lors de la ruée vers l'or du Klondike. Il reflète ses vues sur le comportement des êtres humains dans les différentes sociétés qui s'y rencontrent : pionniers rustres et brutaux voire cruels, ingénieurs des mines éduqués, amérindiens vivant en harmonie avec les animaux et la nature.
 La focalisation majeure du livre est celle des animaux, le livre étant principalement écrit du point de vue de Croc-Blanc.
@@ -587,7 +603,9 @@
           <t>Personnages principaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Croc-Blanc : le héros de l'histoire. Fils de Kiche, un chien-loup, et d'un loup, c'est un chien fier et puissant de couleur grise. Très agile, fort et rapide, il a trois maîtres au fil du roman.
 Weedon Scott : troisième maître de Croc-Blanc, il le découvre dans le Grand Nord et lui sauve la vie. Il s'occupe de l'inspection de mines d'or, et emmène Croc-Blanc chez lui, en Californie, Là-bas, Croc-Blanc sauve la vie de la famille, lorsque Jim Hall vient pour se venger. Croc-Blanc l'attaque et le tue. Le chien-loup s'en sort avec des blessures très graves, mais l'amour de son maître le sauve.
@@ -631,13 +649,14 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Éditions en anglais
-White Fang, dans le Outing Magazine[2], de mai à octobre 1906.
-White Fang, un volume chez Macmillan Publishers, New York, octobre 1906.
-Traductions en français
-Croc-Blanc, traduit par Paul Gruyer et Louis Postif, 1923. (Version raccourcie)
-Croc-Blanc, traduit par Marc Amfreville et Antoine Cazé, Gallimard, 2016[3].
-Croc-blanc, Lectures de toujours, Gründ, 2009.</t>
+          <t>Éditions en anglais</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>White Fang, dans le Outing Magazine, de mai à octobre 1906.
+White Fang, un volume chez Macmillan Publishers, New York, octobre 1906.</t>
         </is>
       </c>
     </row>
@@ -662,13 +681,56 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Éditions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Traductions en français</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Croc-Blanc, traduit par Paul Gruyer et Louis Postif, 1923. (Version raccourcie)
+Croc-Blanc, traduit par Marc Amfreville et Antoine Cazé, Gallimard, 2016.
+Croc-blanc, Lectures de toujours, Gründ, 2009.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Croc-Blanc</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Croc-Blanc</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au cinéma
-1925 : White Fang, film américain réalisé par Laurence Trimble
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Au cinéma</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1925 : White Fang, film américain réalisé par Laurence Trimble
 1936 : White Fang, film américain réalisé par David Butler
 1946 : Croc-Blanc (Белый Клык), film soviétique réalisé par Alexandre Zgouridi
 1973 : Croc-Blanc (Zanna Bianca) réalisé par Lucio Fulci avec Franco Nero, Virna Lisi et Fernando Rey
@@ -678,11 +740,79 @@
 1975 : Croc-Blanc et le Chasseur solitaire (Zanna Bianca e il cacciatore solitario) réalisé par Alfonso Brescia avec Robert Woods, Ignazio Spalla et Malisa Longo
 1991 : Croc-Blanc (White Fang), film américain réalisé par Randal Kleiser avec Klaus Maria Brandauer, Ethan Hawke et Seymour Cassel
 1994 : Croc-Blanc 2 (White Fang 2: Myth of the White Wolf ), film américain réalisé par Ken Olin avec Scott Bairstow, Charmaine Craig, Al Harrington, Anthony Ruivivar, Victoria Racimo et Alfred Molina
-2018 : Croc-Blanc, film d'animation franco-américano-luxembourgeois réalisé par Alexandre Espigares. Le film reçoit le Prix à la Diffusion de la Fondation Gan pour le Cinéma au Festival International du Film d'Animation d'Annecy en 2016
-À la télévision
-1992 : La Légende de Croc-Blanc, série d'animation franco-canadienne créée par Cinar
-En bandes dessinées
-Le roman a été adapté par Jean Ollivier (scénario) et Sonk (dessins) aux éditions Hachette en 1984-1986 (3 vol.).
+2018 : Croc-Blanc, film d'animation franco-américano-luxembourgeois réalisé par Alexandre Espigares. Le film reçoit le Prix à la Diffusion de la Fondation Gan pour le Cinéma au Festival International du Film d'Animation d'Annecy en 2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Croc-Blanc</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Croc-Blanc</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>À la télévision</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1992 : La Légende de Croc-Blanc, série d'animation franco-canadienne créée par Cinar</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Croc-Blanc</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Croc-Blanc</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>En bandes dessinées</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le roman a été adapté par Jean Ollivier (scénario) et Sonk (dessins) aux éditions Hachette en 1984-1986 (3 vol.).
 </t>
         </is>
       </c>
